--- a/outputs/Internal Fill Data Validation.xlsx
+++ b/outputs/Internal Fill Data Validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://regalrexnord-my.sharepoint.com/personal/jenna_eagleson_regalrexnord_com/Documents/Documents/2024/2024_Core Value Drivers_Reporting/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_3E5C2B06141573791A626765304942E08E99AB8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A2AB1A9-17A7-4186-A167-073815A32E35}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_3E5C2B066FCD3325A2E36365304942E08E999DBA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58D625DF-E2F9-464B-8E36-6D5BE7408363}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Profile No Move" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="76">
   <si>
     <t>employee_id</t>
   </si>
@@ -108,33 +108,6 @@
     <t>Molndal Sweden</t>
   </si>
   <si>
-    <t>610159455</t>
-  </si>
-  <si>
-    <t>Henok Mezgebe Fanta</t>
-  </si>
-  <si>
-    <t>Industrial Powertrain Solutions (IPS)</t>
-  </si>
-  <si>
-    <t>IPS Clutches &amp; Brakes Division</t>
-  </si>
-  <si>
-    <t>Bedford United Kingdom</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>220654845</t>
-  </si>
-  <si>
-    <t>Anja Bruns</t>
-  </si>
-  <si>
-    <t>Unna Germany</t>
-  </si>
-  <si>
     <t>610169796</t>
   </si>
   <si>
@@ -150,54 +123,27 @@
     <t>M5</t>
   </si>
   <si>
-    <t>100003792</t>
-  </si>
-  <si>
-    <t>Alejandro Vargas Cruz</t>
+    <t>501012633</t>
+  </si>
+  <si>
+    <t>Paul Boyer</t>
   </si>
   <si>
     <t>PES NA Motors and Drives</t>
   </si>
   <si>
-    <t>Monterrey Rbm Mexico</t>
-  </si>
-  <si>
-    <t>501012633</t>
-  </si>
-  <si>
-    <t>Paul Boyer</t>
-  </si>
-  <si>
     <t>Fort Wayne Indiana</t>
   </si>
   <si>
-    <t>610062783</t>
-  </si>
-  <si>
-    <t>Alma Estefania Cortes Aguilar</t>
-  </si>
-  <si>
-    <t>100001745</t>
-  </si>
-  <si>
-    <t>Tom Faxlanger</t>
+    <t>100002185</t>
+  </si>
+  <si>
+    <t>Matthew Miller</t>
   </si>
   <si>
     <t>PES NA Sales</t>
   </si>
   <si>
-    <t>100002185</t>
-  </si>
-  <si>
-    <t>Matthew Miller</t>
-  </si>
-  <si>
-    <t>610067977</t>
-  </si>
-  <si>
-    <t>Troy Hankins</t>
-  </si>
-  <si>
     <t>610125381</t>
   </si>
   <si>
@@ -213,18 +159,6 @@
     <t>Bob Doenges</t>
   </si>
   <si>
-    <t>610135945</t>
-  </si>
-  <si>
-    <t>Greg Lees</t>
-  </si>
-  <si>
-    <t>610146150</t>
-  </si>
-  <si>
-    <t>Marcus Peters</t>
-  </si>
-  <si>
     <t>220138520</t>
   </si>
   <si>
@@ -264,6 +198,21 @@
     <t>Apodaca Pmc Plant 2 Mexico</t>
   </si>
   <si>
+    <t>610158896</t>
+  </si>
+  <si>
+    <t>Frank Miller</t>
+  </si>
+  <si>
+    <t>AMC Linear Motion Division</t>
+  </si>
+  <si>
+    <t>East Aurora New York</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>220261238</t>
   </si>
   <si>
@@ -301,9 +250,6 @@
   </si>
   <si>
     <t>hris_response</t>
-  </si>
-  <si>
-    <t>hris_responder</t>
   </si>
 </sst>
 </file>
@@ -663,11 +609,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -797,7 +741,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="2">
-        <v>45341</v>
+        <v>45600</v>
       </c>
       <c r="D4" s="2">
         <v>45658</v>
@@ -806,45 +750,45 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
       <c r="C5" s="2">
-        <v>45013</v>
+        <v>35379</v>
       </c>
       <c r="D5" s="2">
-        <v>45658</v>
+        <v>45662</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
         <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -855,10 +799,10 @@
         <v>38</v>
       </c>
       <c r="C6" s="2">
-        <v>45600</v>
+        <v>38782</v>
       </c>
       <c r="D6" s="2">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -870,24 +814,24 @@
         <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2">
-        <v>43640</v>
+        <v>44249</v>
       </c>
       <c r="D7" s="2">
-        <v>45662</v>
+        <v>45663</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
@@ -896,27 +840,27 @@
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2">
-        <v>35379</v>
+        <v>44306</v>
       </c>
       <c r="D8" s="2">
-        <v>45662</v>
+        <v>45663</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -925,10 +869,10 @@
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
         <v>24</v>
@@ -936,31 +880,31 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2">
-        <v>43640</v>
+        <v>39343</v>
       </c>
       <c r="D9" s="2">
-        <v>45662</v>
+        <v>45667</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
@@ -971,25 +915,25 @@
         <v>52</v>
       </c>
       <c r="C10" s="2">
-        <v>34659</v>
+        <v>42961</v>
       </c>
       <c r="D10" s="2">
-        <v>45663</v>
+        <v>45670</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
         <v>53</v>
       </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
@@ -1000,286 +944,83 @@
         <v>55</v>
       </c>
       <c r="C11" s="2">
-        <v>38782</v>
+        <v>44608</v>
       </c>
       <c r="D11" s="2">
-        <v>45663</v>
+        <v>45684</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2">
-        <v>42373</v>
+        <v>45250</v>
       </c>
       <c r="D12" s="2">
-        <v>45663</v>
+        <v>45684</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2">
-        <v>44249</v>
+        <v>45688</v>
       </c>
       <c r="D13" s="2">
-        <v>45663</v>
+        <v>45688</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="2">
-        <v>44306</v>
-      </c>
-      <c r="D14" s="2">
-        <v>45663</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="2">
-        <v>44515</v>
-      </c>
-      <c r="D15" s="2">
-        <v>45663</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" t="s">
         <v>66</v>
-      </c>
-      <c r="C16" s="2">
-        <v>44851</v>
-      </c>
-      <c r="D16" s="2">
-        <v>45663</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="2">
-        <v>39343</v>
-      </c>
-      <c r="D17" s="2">
-        <v>45667</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="2">
-        <v>42961</v>
-      </c>
-      <c r="D18" s="2">
-        <v>45670</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="2">
-        <v>44608</v>
-      </c>
-      <c r="D19" s="2">
-        <v>45684</v>
-      </c>
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="2">
-        <v>45688</v>
-      </c>
-      <c r="D20" s="2">
-        <v>45688</v>
-      </c>
-      <c r="E20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1291,9 +1032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1343,40 +1082,40 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3">
         <v>45658</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="J2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="L2" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1385,36 +1124,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2358A7A5-6533-43B0-BA41-026DAC272B81}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E255C95D-9A16-444C-97E7-34A65EB7506E}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/Internal Fill Data Validation.xlsx
+++ b/outputs/Internal Fill Data Validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://regalrexnord-my.sharepoint.com/personal/jenna_eagleson_regalrexnord_com/Documents/Documents/2024/2024_Core Value Drivers_Reporting/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_3E5C2B066FCD3325A2E36365304942E08E999DBA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58D625DF-E2F9-464B-8E36-6D5BE7408363}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_3E5C2B066F0D335E72A17165304942E08E999DBA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1DA37E5-BE97-42A0-98C2-2ACB79545E98}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Profile No Move" sheetId="1" r:id="rId1"/>
@@ -1124,19 +1124,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E255C95D-9A16-444C-97E7-34A65EB7506E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239D7947-E4A1-46A0-AC5C-755429E334C8}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">

--- a/outputs/Internal Fill Data Validation.xlsx
+++ b/outputs/Internal Fill Data Validation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28605"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -17,7 +17,23 @@
     <sheet name="Promo or Lateral No New Profile" sheetId="2" r:id="rId2"/>
     <sheet name="Flags" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -260,7 +276,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss\ \U\T\C"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,13 +629,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="3" max="4" width="20.7265625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.7265625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="20.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,7 +691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -704,7 +720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -733,7 +749,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -762,7 +778,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -791,7 +807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -820,7 +836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -849,7 +865,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -878,7 +894,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -907,7 +923,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -936,7 +952,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -965,7 +981,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -994,7 +1010,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -1034,12 +1050,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="5" max="5" width="20.7265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1080,7 +1096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -1131,15 +1147,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>

--- a/outputs/Internal Fill Data Validation.xlsx
+++ b/outputs/Internal Fill Data Validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://regalrexnord-my.sharepoint.com/personal/jenna_eagleson_regalrexnord_com/Documents/Documents/2025/2025_Core Value Drivers_Reporting/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_4318AB028EE57A513663606530BFF262AA4DCF88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8B075B5-75F1-401D-8C8E-AF67EF26AEB0}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_4318AB028EE57A513663606530BFF262AA4DCF88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80513305-E020-4379-B2F8-B0823B4C47E3}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Profile No Move" sheetId="1" r:id="rId1"/>
@@ -3921,8 +3921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4766,10 +4766,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M484"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -4857,7 +4856,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -5316,7 +5315,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>162</v>
       </c>
@@ -5433,7 +5432,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>172</v>
       </c>
@@ -6126,7 +6125,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>224</v>
       </c>
@@ -6430,7 +6429,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>244</v>
       </c>
@@ -6661,7 +6660,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>262</v>
       </c>
@@ -7003,7 +7002,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>277</v>
       </c>
@@ -7155,7 +7154,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>290</v>
       </c>
@@ -7310,7 +7309,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>298</v>
       </c>
@@ -7804,7 +7803,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>322</v>
       </c>
@@ -7921,7 +7920,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>330</v>
       </c>
@@ -8076,7 +8075,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>337</v>
       </c>
@@ -8304,7 +8303,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>352</v>
       </c>
@@ -8883,7 +8882,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>394</v>
       </c>
@@ -8921,7 +8920,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>396</v>
       </c>
@@ -9035,7 +9034,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>404</v>
       </c>
@@ -9193,7 +9192,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>416</v>
       </c>
@@ -9842,7 +9841,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>448</v>
       </c>
@@ -9918,7 +9917,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>454</v>
       </c>
@@ -9994,7 +9993,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>460</v>
       </c>
@@ -10032,7 +10031,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>462</v>
       </c>
@@ -10070,7 +10069,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>465</v>
       </c>
@@ -10304,7 +10303,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>483</v>
       </c>
@@ -10342,7 +10341,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>486</v>
       </c>
@@ -10456,7 +10455,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>494</v>
       </c>
@@ -10494,7 +10493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>498</v>
       </c>
@@ -10532,7 +10531,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>501</v>
       </c>
@@ -11181,7 +11180,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>538</v>
       </c>
@@ -11333,7 +11332,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>544</v>
       </c>
@@ -11567,7 +11566,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>555</v>
       </c>
@@ -11605,7 +11604,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>558</v>
       </c>
@@ -11722,7 +11721,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>563</v>
       </c>
@@ -11798,7 +11797,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>568</v>
       </c>
@@ -11912,7 +11911,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>575</v>
       </c>
@@ -12064,7 +12063,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>583</v>
       </c>
@@ -12102,7 +12101,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>585</v>
       </c>
@@ -12298,7 +12297,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>598</v>
       </c>
@@ -12374,7 +12373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>600</v>
       </c>
@@ -12602,7 +12601,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>611</v>
       </c>
@@ -12754,7 +12753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>622</v>
       </c>
@@ -12833,7 +12832,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>628</v>
       </c>
@@ -12950,7 +12949,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>634</v>
       </c>
@@ -13026,7 +13025,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>634</v>
       </c>
@@ -13105,7 +13104,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>636</v>
       </c>
@@ -13450,7 +13449,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>656</v>
       </c>
@@ -13988,7 +13987,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>684</v>
       </c>
@@ -14216,7 +14215,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>697</v>
       </c>
@@ -14409,7 +14408,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>708</v>
       </c>
@@ -14450,7 +14449,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>714</v>
       </c>
@@ -14488,7 +14487,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>716</v>
       </c>
@@ -14602,7 +14601,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>723</v>
       </c>
@@ -14985,7 +14984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="267" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>747</v>
       </c>
@@ -15023,7 +15022,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>747</v>
       </c>
@@ -15216,7 +15215,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>759</v>
       </c>
@@ -15333,7 +15332,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="276" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>762</v>
       </c>
@@ -15371,7 +15370,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>764</v>
       </c>
@@ -15409,7 +15408,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="278" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>769</v>
       </c>
@@ -15447,7 +15446,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>771</v>
       </c>
@@ -15599,7 +15598,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>779</v>
       </c>
@@ -15675,7 +15674,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>783</v>
       </c>
@@ -15713,7 +15712,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>786</v>
       </c>
@@ -16935,7 +16934,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>848</v>
       </c>
@@ -17391,7 +17390,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="330" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>872</v>
       </c>
@@ -17543,7 +17542,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="334" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>876</v>
       </c>
@@ -17622,7 +17621,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="336" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>881</v>
       </c>
@@ -18394,7 +18393,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="356" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>926</v>
       </c>
@@ -18736,7 +18735,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="365" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>943</v>
       </c>
@@ -18850,7 +18849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="368" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>949</v>
       </c>
@@ -18926,7 +18925,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="370" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>953</v>
       </c>
@@ -18964,7 +18963,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="371" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>956</v>
       </c>
@@ -19809,7 +19808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>996</v>
       </c>
@@ -20274,7 +20273,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="405" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>1013</v>
       </c>
@@ -20625,7 +20624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="414" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>1033</v>
       </c>
@@ -21584,7 +21583,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="439" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>1086</v>
       </c>
@@ -21622,7 +21621,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="440" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>1086</v>
       </c>
@@ -21698,7 +21697,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="442" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>1088</v>
       </c>
@@ -21926,7 +21925,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="448" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>1097</v>
       </c>
@@ -22537,7 +22536,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="464" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>1130</v>
       </c>
@@ -22999,7 +22998,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="476" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>1157</v>
       </c>
@@ -23075,7 +23074,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="478" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>1163</v>
       </c>
@@ -23342,13 +23341,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M484" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Transfer &gt; Transfer &gt; Move to another Manager"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M484" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>